--- a/999999/1603/45/16/xlsx/svk.xlsx
+++ b/999999/1603/45/16/xlsx/svk.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="248">
   <si>
     <t>admin2Name_sk</t>
   </si>
@@ -116,6 +116,9 @@
     <t>SK021001</t>
   </si>
   <si>
+    <t>Dunajska Streda</t>
+  </si>
+  <si>
     <t>Trnavský kraj</t>
   </si>
   <si>
@@ -140,6 +143,9 @@
     <t>SK021004</t>
   </si>
   <si>
+    <t>Piestany</t>
+  </si>
+  <si>
     <t>Senica</t>
   </si>
   <si>
@@ -164,6 +170,9 @@
     <t>SK022001</t>
   </si>
   <si>
+    <t>Banovce nad Bebravou</t>
+  </si>
+  <si>
     <t>Trenčiansky kraj</t>
   </si>
   <si>
@@ -188,18 +197,27 @@
     <t>SK022004</t>
   </si>
   <si>
+    <t>Nove Mesto nad Vahom</t>
+  </si>
+  <si>
     <t>Partizánske</t>
   </si>
   <si>
     <t>SK022005</t>
   </si>
   <si>
+    <t>Partizanske</t>
+  </si>
+  <si>
     <t>Považská Bystrica</t>
   </si>
   <si>
     <t>SK022006</t>
   </si>
   <si>
+    <t>Povazska Bystrica</t>
+  </si>
+  <si>
     <t>Prievidza</t>
   </si>
   <si>
@@ -212,18 +230,27 @@
     <t>SK022008</t>
   </si>
   <si>
+    <t>Puchov</t>
+  </si>
+  <si>
     <t>Trenčín</t>
   </si>
   <si>
     <t>SK022009</t>
   </si>
   <si>
+    <t>Trencin</t>
+  </si>
+  <si>
     <t>Komárno</t>
   </si>
   <si>
     <t>SK023001</t>
   </si>
   <si>
+    <t>Komarno</t>
+  </si>
+  <si>
     <t>Nitriansky kraj</t>
   </si>
   <si>
@@ -248,30 +275,45 @@
     <t>SK023004</t>
   </si>
   <si>
+    <t>Nove Zamky</t>
+  </si>
+  <si>
     <t>Šaľa</t>
   </si>
   <si>
     <t>SK023005</t>
   </si>
   <si>
+    <t>Sala</t>
+  </si>
+  <si>
     <t>Topoľčany</t>
   </si>
   <si>
     <t>SK023006</t>
   </si>
   <si>
+    <t>Topolcany</t>
+  </si>
+  <si>
     <t>Zlaté Moravce</t>
   </si>
   <si>
     <t>SK023007</t>
   </si>
   <si>
+    <t>Zlate Moravce</t>
+  </si>
+  <si>
     <t>Bytča</t>
   </si>
   <si>
     <t>SK031001</t>
   </si>
   <si>
+    <t>Bytca</t>
+  </si>
+  <si>
     <t>Žilinský kraj</t>
   </si>
   <si>
@@ -284,24 +326,36 @@
     <t>SK031002</t>
   </si>
   <si>
+    <t>Cadca</t>
+  </si>
+  <si>
     <t>Dolný Kubín</t>
   </si>
   <si>
     <t>SK031003</t>
   </si>
   <si>
+    <t>Dolny Kubin</t>
+  </si>
+  <si>
     <t>Kysucké Nové Mesto</t>
   </si>
   <si>
     <t>SK031004</t>
   </si>
   <si>
+    <t>Kysucke Nove Mesto</t>
+  </si>
+  <si>
     <t>Liptovský Mikuláš</t>
   </si>
   <si>
     <t>SK031005</t>
   </si>
   <si>
+    <t>Liptovsky Mikulas</t>
+  </si>
+  <si>
     <t>Martin</t>
   </si>
   <si>
@@ -314,36 +368,54 @@
     <t>SK031007</t>
   </si>
   <si>
+    <t>Namestovo</t>
+  </si>
+  <si>
     <t>Ružomberok</t>
   </si>
   <si>
     <t>SK031008</t>
   </si>
   <si>
+    <t>Ruzomberok</t>
+  </si>
+  <si>
     <t>Turčianske Teplice</t>
   </si>
   <si>
     <t>SK031009</t>
   </si>
   <si>
+    <t>Turcianske Teplice</t>
+  </si>
+  <si>
     <t>Tvrdošín</t>
   </si>
   <si>
     <t>SK031010</t>
   </si>
   <si>
+    <t>Tvrdosin</t>
+  </si>
+  <si>
     <t>Žilina</t>
   </si>
   <si>
     <t>SK031011</t>
   </si>
   <si>
+    <t>Zilina</t>
+  </si>
+  <si>
     <t>Banská Bystrica</t>
   </si>
   <si>
     <t>SK032001</t>
   </si>
   <si>
+    <t>Banska Bystrica</t>
+  </si>
+  <si>
     <t>Banskobystrický kraj</t>
   </si>
   <si>
@@ -356,6 +428,9 @@
     <t>SK032002</t>
   </si>
   <si>
+    <t>Banska Stiavnica</t>
+  </si>
+  <si>
     <t>Brezno</t>
   </si>
   <si>
@@ -380,42 +455,63 @@
     <t>SK032006</t>
   </si>
   <si>
+    <t>Lucenec</t>
+  </si>
+  <si>
     <t>Poltár</t>
   </si>
   <si>
     <t>SK032007</t>
   </si>
   <si>
+    <t>Poltar</t>
+  </si>
+  <si>
     <t>Revúca</t>
   </si>
   <si>
     <t>SK032008</t>
   </si>
   <si>
+    <t>Revuca</t>
+  </si>
+  <si>
     <t>Rimavská Sobota</t>
   </si>
   <si>
     <t>SK032009</t>
   </si>
   <si>
+    <t>Rimavska Sobota</t>
+  </si>
+  <si>
     <t>Veľký Krtíš</t>
   </si>
   <si>
     <t>SK032010</t>
   </si>
   <si>
+    <t>Velky Krtis</t>
+  </si>
+  <si>
     <t>Žarnovica</t>
   </si>
   <si>
     <t>SK032011</t>
   </si>
   <si>
+    <t>Zarnovica</t>
+  </si>
+  <si>
     <t>Žiar nad Hronom</t>
   </si>
   <si>
     <t>SK032012</t>
   </si>
   <si>
+    <t>Ziar nad Hronom</t>
+  </si>
+  <si>
     <t>Zvolen</t>
   </si>
   <si>
@@ -440,18 +536,27 @@
     <t>SK041002</t>
   </si>
   <si>
+    <t>Humenne</t>
+  </si>
+  <si>
     <t>Kežmarok</t>
   </si>
   <si>
     <t>SK041003</t>
   </si>
   <si>
+    <t>Kezmarok</t>
+  </si>
+  <si>
     <t>Levoča</t>
   </si>
   <si>
     <t>SK041004</t>
   </si>
   <si>
+    <t>Levoca</t>
+  </si>
+  <si>
     <t>Medzilaborce</t>
   </si>
   <si>
@@ -470,6 +575,9 @@
     <t>SK041007</t>
   </si>
   <si>
+    <t>Presov</t>
+  </si>
+  <si>
     <t>Sabinov</t>
   </si>
   <si>
@@ -488,6 +596,9 @@
     <t>SK041010</t>
   </si>
   <si>
+    <t>Stara Lubovna</t>
+  </si>
+  <si>
     <t>Stropkov</t>
   </si>
   <si>
@@ -500,12 +611,18 @@
     <t>SK041012</t>
   </si>
   <si>
+    <t>Svidnik</t>
+  </si>
+  <si>
     <t>Vranov nad Topľou</t>
   </si>
   <si>
     <t>SK041013</t>
   </si>
   <si>
+    <t>Vranov nad Toplou</t>
+  </si>
+  <si>
     <t>Gelnica</t>
   </si>
   <si>
@@ -524,30 +641,45 @@
     <t>SK042002</t>
   </si>
   <si>
+    <t>Kosice - okolie</t>
+  </si>
+  <si>
     <t>Košice I</t>
   </si>
   <si>
     <t>SK042003</t>
   </si>
   <si>
+    <t>Kosice I</t>
+  </si>
+  <si>
     <t>Košice II</t>
   </si>
   <si>
     <t>SK042004</t>
   </si>
   <si>
+    <t>Kosice II</t>
+  </si>
+  <si>
     <t>Košice III</t>
   </si>
   <si>
     <t>SK042005</t>
   </si>
   <si>
+    <t>Kosice III</t>
+  </si>
+  <si>
     <t>Košice IV</t>
   </si>
   <si>
     <t>SK042006</t>
   </si>
   <si>
+    <t>Kosice IV</t>
+  </si>
+  <si>
     <t>Michalovce</t>
   </si>
   <si>
@@ -560,6 +692,9 @@
     <t>SK042008</t>
   </si>
   <si>
+    <t>Roznava</t>
+  </si>
+  <si>
     <t>Sobrance</t>
   </si>
   <si>
@@ -572,12 +707,18 @@
     <t>SK042010</t>
   </si>
   <si>
+    <t>Spisska Nova Ves</t>
+  </si>
+  <si>
     <t>Trebišov</t>
   </si>
   <si>
     <t>SK042011</t>
   </si>
   <si>
+    <t>Trebisov</t>
+  </si>
+  <si>
     <t>admin1RefName</t>
   </si>
   <si>
@@ -585,6 +726,27 @@
   </si>
   <si>
     <t>admin1AltName2_sk</t>
+  </si>
+  <si>
+    <t>Bratislavsky kraj</t>
+  </si>
+  <si>
+    <t>Trnavsky kraj</t>
+  </si>
+  <si>
+    <t>Trenciansky kraj</t>
+  </si>
+  <si>
+    <t>Zilinsky kraj</t>
+  </si>
+  <si>
+    <t>Banskobystricky kraj</t>
+  </si>
+  <si>
+    <t>Presovsky kraj</t>
+  </si>
+  <si>
+    <t>Kosicky kraj</t>
   </si>
   <si>
     <t>admin0RefName</t>
@@ -709,6 +871,9 @@
       <c r="B2" t="s">
         <v>13</v>
       </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
       <c r="F2" t="s">
         <v>14</v>
       </c>
@@ -725,7 +890,7 @@
         <v>44629</v>
       </c>
       <c r="K2" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="3">
@@ -735,6 +900,9 @@
       <c r="B3" t="s">
         <v>19</v>
       </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
@@ -751,7 +919,7 @@
         <v>44629</v>
       </c>
       <c r="K3" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="4">
@@ -761,6 +929,9 @@
       <c r="B4" t="s">
         <v>21</v>
       </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
       <c r="F4" t="s">
         <v>14</v>
       </c>
@@ -777,7 +948,7 @@
         <v>44629</v>
       </c>
       <c r="K4" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="5">
@@ -787,6 +958,9 @@
       <c r="B5" t="s">
         <v>23</v>
       </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
       <c r="F5" t="s">
         <v>14</v>
       </c>
@@ -803,7 +977,7 @@
         <v>44629</v>
       </c>
       <c r="K5" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="6">
@@ -813,6 +987,9 @@
       <c r="B6" t="s">
         <v>25</v>
       </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
       <c r="F6" t="s">
         <v>14</v>
       </c>
@@ -829,7 +1006,7 @@
         <v>44629</v>
       </c>
       <c r="K6" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="7">
@@ -839,6 +1016,9 @@
       <c r="B7" t="s">
         <v>27</v>
       </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
       <c r="F7" t="s">
         <v>14</v>
       </c>
@@ -855,7 +1035,7 @@
         <v>44629</v>
       </c>
       <c r="K7" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="8">
@@ -865,6 +1045,9 @@
       <c r="B8" t="s">
         <v>29</v>
       </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
       <c r="F8" t="s">
         <v>14</v>
       </c>
@@ -881,7 +1064,7 @@
         <v>44629</v>
       </c>
       <c r="K8" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="9">
@@ -891,6 +1074,9 @@
       <c r="B9" t="s">
         <v>31</v>
       </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
       <c r="F9" t="s">
         <v>14</v>
       </c>
@@ -907,7 +1093,7 @@
         <v>44629</v>
       </c>
       <c r="K9" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="10">
@@ -917,11 +1103,14 @@
       <c r="B10" t="s">
         <v>33</v>
       </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
         <v>16</v>
@@ -933,22 +1122,25 @@
         <v>44629</v>
       </c>
       <c r="K10" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
         <v>36</v>
       </c>
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" t="s">
-        <v>35</v>
-      </c>
       <c r="H11" t="s">
         <v>16</v>
       </c>
@@ -959,21 +1151,24 @@
         <v>44629</v>
       </c>
       <c r="K11" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
         <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H12" t="s">
         <v>16</v>
@@ -985,21 +1180,24 @@
         <v>44629</v>
       </c>
       <c r="K12" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H13" t="s">
         <v>16</v>
@@ -1011,21 +1209,24 @@
         <v>44629</v>
       </c>
       <c r="K13" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H14" t="s">
         <v>16</v>
@@ -1037,21 +1238,24 @@
         <v>44629</v>
       </c>
       <c r="K14" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15" t="s">
         <v>16</v>
@@ -1063,21 +1267,24 @@
         <v>44629</v>
       </c>
       <c r="K15" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H16" t="s">
         <v>16</v>
@@ -1089,21 +1296,24 @@
         <v>44629</v>
       </c>
       <c r="K16" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
       </c>
       <c r="F17" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H17" t="s">
         <v>16</v>
@@ -1115,21 +1325,24 @@
         <v>44629</v>
       </c>
       <c r="K17" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" t="s">
         <v>53</v>
       </c>
-      <c r="F18" t="s">
-        <v>50</v>
-      </c>
       <c r="G18" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H18" t="s">
         <v>16</v>
@@ -1141,22 +1354,25 @@
         <v>44629</v>
       </c>
       <c r="K18" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" t="s">
         <v>54</v>
       </c>
-      <c r="B19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" t="s">
-        <v>51</v>
-      </c>
       <c r="H19" t="s">
         <v>16</v>
       </c>
@@ -1167,21 +1383,24 @@
         <v>44629</v>
       </c>
       <c r="K19" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
       </c>
       <c r="F20" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G20" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H20" t="s">
         <v>16</v>
@@ -1193,21 +1412,24 @@
         <v>44629</v>
       </c>
       <c r="K20" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
+        <v>64</v>
       </c>
       <c r="F21" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G21" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H21" t="s">
         <v>16</v>
@@ -1219,21 +1441,24 @@
         <v>44629</v>
       </c>
       <c r="K21" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>66</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
       </c>
       <c r="F22" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G22" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H22" t="s">
         <v>16</v>
@@ -1245,21 +1470,24 @@
         <v>44629</v>
       </c>
       <c r="K22" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>69</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
       </c>
       <c r="F23" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G23" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H23" t="s">
         <v>16</v>
@@ -1271,21 +1499,24 @@
         <v>44629</v>
       </c>
       <c r="K23" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>71</v>
+      </c>
+      <c r="C24" t="s">
+        <v>72</v>
       </c>
       <c r="F24" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G24" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H24" t="s">
         <v>16</v>
@@ -1297,21 +1528,24 @@
         <v>44629</v>
       </c>
       <c r="K24" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>74</v>
+      </c>
+      <c r="C25" t="s">
+        <v>75</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G25" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H25" t="s">
         <v>16</v>
@@ -1323,21 +1557,24 @@
         <v>44629</v>
       </c>
       <c r="K25" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>77</v>
+      </c>
+      <c r="C26" t="s">
+        <v>78</v>
       </c>
       <c r="F26" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s">
         <v>16</v>
@@ -1349,21 +1586,24 @@
         <v>44629</v>
       </c>
       <c r="K26" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>82</v>
+      </c>
+      <c r="C27" t="s">
+        <v>81</v>
       </c>
       <c r="F27" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H27" t="s">
         <v>16</v>
@@ -1375,21 +1615,24 @@
         <v>44629</v>
       </c>
       <c r="K27" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>84</v>
+      </c>
+      <c r="C28" t="s">
+        <v>83</v>
       </c>
       <c r="F28" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H28" t="s">
         <v>16</v>
@@ -1401,21 +1644,24 @@
         <v>44629</v>
       </c>
       <c r="K28" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>86</v>
+      </c>
+      <c r="C29" t="s">
+        <v>87</v>
       </c>
       <c r="F29" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H29" t="s">
         <v>16</v>
@@ -1427,21 +1673,24 @@
         <v>44629</v>
       </c>
       <c r="K29" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" t="s">
         <v>79</v>
       </c>
-      <c r="F30" t="s">
-        <v>70</v>
-      </c>
       <c r="G30" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H30" t="s">
         <v>16</v>
@@ -1453,22 +1702,25 @@
         <v>44629</v>
       </c>
       <c r="K30" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31" t="s">
         <v>80</v>
       </c>
-      <c r="B31" t="s">
-        <v>81</v>
-      </c>
-      <c r="F31" t="s">
-        <v>70</v>
-      </c>
-      <c r="G31" t="s">
-        <v>71</v>
-      </c>
       <c r="H31" t="s">
         <v>16</v>
       </c>
@@ -1479,21 +1731,24 @@
         <v>44629</v>
       </c>
       <c r="K31" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>95</v>
+      </c>
+      <c r="C32" t="s">
+        <v>96</v>
       </c>
       <c r="F32" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H32" t="s">
         <v>16</v>
@@ -1505,21 +1760,24 @@
         <v>44629</v>
       </c>
       <c r="K32" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>98</v>
+      </c>
+      <c r="C33" t="s">
+        <v>99</v>
       </c>
       <c r="F33" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="G33" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="H33" t="s">
         <v>16</v>
@@ -1531,21 +1789,24 @@
         <v>44629</v>
       </c>
       <c r="K33" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>103</v>
+      </c>
+      <c r="C34" t="s">
+        <v>104</v>
       </c>
       <c r="F34" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="G34" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="H34" t="s">
         <v>16</v>
@@ -1557,21 +1818,24 @@
         <v>44629</v>
       </c>
       <c r="K34" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="B35" t="s">
-        <v>91</v>
+        <v>106</v>
+      </c>
+      <c r="C35" t="s">
+        <v>107</v>
       </c>
       <c r="F35" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="G35" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="H35" t="s">
         <v>16</v>
@@ -1583,21 +1847,24 @@
         <v>44629</v>
       </c>
       <c r="K35" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="B36" t="s">
-        <v>93</v>
+        <v>109</v>
+      </c>
+      <c r="C36" t="s">
+        <v>110</v>
       </c>
       <c r="F36" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="G36" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="H36" t="s">
         <v>16</v>
@@ -1609,21 +1876,24 @@
         <v>44629</v>
       </c>
       <c r="K36" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="B37" t="s">
-        <v>95</v>
+        <v>112</v>
+      </c>
+      <c r="C37" t="s">
+        <v>113</v>
       </c>
       <c r="F37" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="G37" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="H37" t="s">
         <v>16</v>
@@ -1635,21 +1905,24 @@
         <v>44629</v>
       </c>
       <c r="K37" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>115</v>
+      </c>
+      <c r="C38" t="s">
+        <v>114</v>
       </c>
       <c r="F38" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="G38" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="H38" t="s">
         <v>16</v>
@@ -1661,21 +1934,24 @@
         <v>44629</v>
       </c>
       <c r="K38" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="B39" t="s">
-        <v>99</v>
+        <v>117</v>
+      </c>
+      <c r="C39" t="s">
+        <v>118</v>
       </c>
       <c r="F39" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="G39" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="H39" t="s">
         <v>16</v>
@@ -1687,22 +1963,25 @@
         <v>44629</v>
       </c>
       <c r="K39" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>119</v>
+      </c>
+      <c r="B40" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" t="s">
+        <v>121</v>
+      </c>
+      <c r="F40" t="s">
         <v>100</v>
       </c>
-      <c r="B40" t="s">
+      <c r="G40" t="s">
         <v>101</v>
       </c>
-      <c r="F40" t="s">
-        <v>86</v>
-      </c>
-      <c r="G40" t="s">
-        <v>87</v>
-      </c>
       <c r="H40" t="s">
         <v>16</v>
       </c>
@@ -1713,21 +1992,24 @@
         <v>44629</v>
       </c>
       <c r="K40" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="B41" t="s">
-        <v>103</v>
+        <v>123</v>
+      </c>
+      <c r="C41" t="s">
+        <v>124</v>
       </c>
       <c r="F41" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="G41" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="H41" t="s">
         <v>16</v>
@@ -1739,21 +2021,24 @@
         <v>44629</v>
       </c>
       <c r="K41" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="B42" t="s">
-        <v>105</v>
+        <v>126</v>
+      </c>
+      <c r="C42" t="s">
+        <v>127</v>
       </c>
       <c r="F42" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="G42" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="H42" t="s">
         <v>16</v>
@@ -1765,21 +2050,24 @@
         <v>44629</v>
       </c>
       <c r="K42" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="B43" t="s">
-        <v>107</v>
+        <v>129</v>
+      </c>
+      <c r="C43" t="s">
+        <v>130</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="G43" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="H43" t="s">
         <v>16</v>
@@ -1791,21 +2079,24 @@
         <v>44629</v>
       </c>
       <c r="K43" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="B44" t="s">
-        <v>109</v>
+        <v>132</v>
+      </c>
+      <c r="C44" t="s">
+        <v>133</v>
       </c>
       <c r="F44" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="G44" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="H44" t="s">
         <v>16</v>
@@ -1817,21 +2108,24 @@
         <v>44629</v>
       </c>
       <c r="K44" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="B45" t="s">
-        <v>113</v>
+        <v>137</v>
+      </c>
+      <c r="C45" t="s">
+        <v>138</v>
       </c>
       <c r="F45" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="G45" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="H45" t="s">
         <v>16</v>
@@ -1843,21 +2137,24 @@
         <v>44629</v>
       </c>
       <c r="K45" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="B46" t="s">
-        <v>115</v>
+        <v>140</v>
+      </c>
+      <c r="C46" t="s">
+        <v>139</v>
       </c>
       <c r="F46" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="G46" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="H46" t="s">
         <v>16</v>
@@ -1869,21 +2166,24 @@
         <v>44629</v>
       </c>
       <c r="K46" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="B47" t="s">
-        <v>117</v>
+        <v>142</v>
+      </c>
+      <c r="C47" t="s">
+        <v>141</v>
       </c>
       <c r="F47" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="G47" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="H47" t="s">
         <v>16</v>
@@ -1895,21 +2195,24 @@
         <v>44629</v>
       </c>
       <c r="K47" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="B48" t="s">
-        <v>119</v>
+        <v>144</v>
+      </c>
+      <c r="C48" t="s">
+        <v>143</v>
       </c>
       <c r="F48" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="G48" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="H48" t="s">
         <v>16</v>
@@ -1921,21 +2224,24 @@
         <v>44629</v>
       </c>
       <c r="K48" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="B49" t="s">
-        <v>121</v>
+        <v>146</v>
+      </c>
+      <c r="C49" t="s">
+        <v>147</v>
       </c>
       <c r="F49" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="G49" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="H49" t="s">
         <v>16</v>
@@ -1947,21 +2253,24 @@
         <v>44629</v>
       </c>
       <c r="K49" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="B50" t="s">
-        <v>123</v>
+        <v>149</v>
+      </c>
+      <c r="C50" t="s">
+        <v>150</v>
       </c>
       <c r="F50" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="G50" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="H50" t="s">
         <v>16</v>
@@ -1973,21 +2282,24 @@
         <v>44629</v>
       </c>
       <c r="K50" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="B51" t="s">
-        <v>125</v>
+        <v>152</v>
+      </c>
+      <c r="C51" t="s">
+        <v>153</v>
       </c>
       <c r="F51" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="G51" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="H51" t="s">
         <v>16</v>
@@ -1999,21 +2311,24 @@
         <v>44629</v>
       </c>
       <c r="K51" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="B52" t="s">
-        <v>127</v>
+        <v>155</v>
+      </c>
+      <c r="C52" t="s">
+        <v>156</v>
       </c>
       <c r="F52" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="G52" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="H52" t="s">
         <v>16</v>
@@ -2025,21 +2340,24 @@
         <v>44629</v>
       </c>
       <c r="K52" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="B53" t="s">
-        <v>129</v>
+        <v>158</v>
+      </c>
+      <c r="C53" t="s">
+        <v>159</v>
       </c>
       <c r="F53" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="G53" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="H53" t="s">
         <v>16</v>
@@ -2051,21 +2369,24 @@
         <v>44629</v>
       </c>
       <c r="K53" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="B54" t="s">
-        <v>131</v>
+        <v>161</v>
+      </c>
+      <c r="C54" t="s">
+        <v>162</v>
       </c>
       <c r="F54" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="G54" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="H54" t="s">
         <v>16</v>
@@ -2077,21 +2398,24 @@
         <v>44629</v>
       </c>
       <c r="K54" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="B55" t="s">
-        <v>133</v>
+        <v>164</v>
+      </c>
+      <c r="C55" t="s">
+        <v>165</v>
       </c>
       <c r="F55" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="G55" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="H55" t="s">
         <v>16</v>
@@ -2103,22 +2427,25 @@
         <v>44629</v>
       </c>
       <c r="K55" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>166</v>
+      </c>
+      <c r="B56" t="s">
+        <v>167</v>
+      </c>
+      <c r="C56" t="s">
+        <v>166</v>
+      </c>
+      <c r="F56" t="s">
         <v>134</v>
       </c>
-      <c r="B56" t="s">
+      <c r="G56" t="s">
         <v>135</v>
       </c>
-      <c r="F56" t="s">
-        <v>110</v>
-      </c>
-      <c r="G56" t="s">
-        <v>111</v>
-      </c>
       <c r="H56" t="s">
         <v>16</v>
       </c>
@@ -2129,21 +2456,24 @@
         <v>44629</v>
       </c>
       <c r="K56" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="B57" t="s">
-        <v>137</v>
+        <v>169</v>
+      </c>
+      <c r="C57" t="s">
+        <v>168</v>
       </c>
       <c r="F57" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="G57" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="H57" t="s">
         <v>16</v>
@@ -2155,21 +2485,24 @@
         <v>44629</v>
       </c>
       <c r="K57" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="B58" t="s">
-        <v>141</v>
+        <v>173</v>
+      </c>
+      <c r="C58" t="s">
+        <v>174</v>
       </c>
       <c r="F58" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="G58" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="H58" t="s">
         <v>16</v>
@@ -2181,21 +2514,24 @@
         <v>44629</v>
       </c>
       <c r="K58" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="B59" t="s">
-        <v>143</v>
+        <v>176</v>
+      </c>
+      <c r="C59" t="s">
+        <v>177</v>
       </c>
       <c r="F59" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="G59" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="H59" t="s">
         <v>16</v>
@@ -2207,21 +2543,24 @@
         <v>44629</v>
       </c>
       <c r="K59" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="B60" t="s">
-        <v>145</v>
+        <v>179</v>
+      </c>
+      <c r="C60" t="s">
+        <v>180</v>
       </c>
       <c r="F60" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="G60" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="H60" t="s">
         <v>16</v>
@@ -2233,21 +2572,24 @@
         <v>44629</v>
       </c>
       <c r="K60" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="B61" t="s">
-        <v>147</v>
+        <v>182</v>
+      </c>
+      <c r="C61" t="s">
+        <v>181</v>
       </c>
       <c r="F61" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="G61" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="H61" t="s">
         <v>16</v>
@@ -2259,21 +2601,24 @@
         <v>44629</v>
       </c>
       <c r="K61" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="B62" t="s">
-        <v>149</v>
+        <v>184</v>
+      </c>
+      <c r="C62" t="s">
+        <v>183</v>
       </c>
       <c r="F62" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="G62" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="H62" t="s">
         <v>16</v>
@@ -2285,21 +2630,24 @@
         <v>44629</v>
       </c>
       <c r="K62" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="B63" t="s">
-        <v>151</v>
+        <v>186</v>
+      </c>
+      <c r="C63" t="s">
+        <v>187</v>
       </c>
       <c r="F63" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="G63" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="H63" t="s">
         <v>16</v>
@@ -2311,21 +2659,24 @@
         <v>44629</v>
       </c>
       <c r="K63" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="B64" t="s">
-        <v>153</v>
+        <v>189</v>
+      </c>
+      <c r="C64" t="s">
+        <v>188</v>
       </c>
       <c r="F64" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="G64" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="H64" t="s">
         <v>16</v>
@@ -2337,21 +2688,24 @@
         <v>44629</v>
       </c>
       <c r="K64" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="B65" t="s">
-        <v>155</v>
+        <v>191</v>
+      </c>
+      <c r="C65" t="s">
+        <v>190</v>
       </c>
       <c r="F65" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="G65" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="H65" t="s">
         <v>16</v>
@@ -2363,21 +2717,24 @@
         <v>44629</v>
       </c>
       <c r="K65" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="B66" t="s">
-        <v>157</v>
+        <v>193</v>
+      </c>
+      <c r="C66" t="s">
+        <v>194</v>
       </c>
       <c r="F66" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="G66" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="H66" t="s">
         <v>16</v>
@@ -2389,21 +2746,24 @@
         <v>44629</v>
       </c>
       <c r="K66" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="B67" t="s">
-        <v>159</v>
+        <v>196</v>
+      </c>
+      <c r="C67" t="s">
+        <v>195</v>
       </c>
       <c r="F67" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="G67" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="H67" t="s">
         <v>16</v>
@@ -2415,21 +2775,24 @@
         <v>44629</v>
       </c>
       <c r="K67" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
       <c r="B68" t="s">
-        <v>161</v>
+        <v>198</v>
+      </c>
+      <c r="C68" t="s">
+        <v>199</v>
       </c>
       <c r="F68" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="G68" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="H68" t="s">
         <v>16</v>
@@ -2441,21 +2804,24 @@
         <v>44629</v>
       </c>
       <c r="K68" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="B69" t="s">
-        <v>163</v>
+        <v>201</v>
+      </c>
+      <c r="C69" t="s">
+        <v>202</v>
       </c>
       <c r="F69" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="G69" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="H69" t="s">
         <v>16</v>
@@ -2467,21 +2833,24 @@
         <v>44629</v>
       </c>
       <c r="K69" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="B70" t="s">
-        <v>165</v>
+        <v>204</v>
+      </c>
+      <c r="C70" t="s">
+        <v>203</v>
       </c>
       <c r="F70" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="G70" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="H70" t="s">
         <v>16</v>
@@ -2493,21 +2862,24 @@
         <v>44629</v>
       </c>
       <c r="K70" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>168</v>
+        <v>207</v>
       </c>
       <c r="B71" t="s">
-        <v>169</v>
+        <v>208</v>
+      </c>
+      <c r="C71" t="s">
+        <v>209</v>
       </c>
       <c r="F71" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="G71" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="H71" t="s">
         <v>16</v>
@@ -2519,21 +2891,24 @@
         <v>44629</v>
       </c>
       <c r="K71" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="B72" t="s">
-        <v>171</v>
+        <v>211</v>
+      </c>
+      <c r="C72" t="s">
+        <v>212</v>
       </c>
       <c r="F72" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="G72" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="H72" t="s">
         <v>16</v>
@@ -2545,21 +2920,24 @@
         <v>44629</v>
       </c>
       <c r="K72" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>172</v>
+        <v>213</v>
       </c>
       <c r="B73" t="s">
-        <v>173</v>
+        <v>214</v>
+      </c>
+      <c r="C73" t="s">
+        <v>215</v>
       </c>
       <c r="F73" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="G73" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="H73" t="s">
         <v>16</v>
@@ -2571,21 +2949,24 @@
         <v>44629</v>
       </c>
       <c r="K73" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
       <c r="B74" t="s">
-        <v>175</v>
+        <v>217</v>
+      </c>
+      <c r="C74" t="s">
+        <v>218</v>
       </c>
       <c r="F74" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="G74" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="H74" t="s">
         <v>16</v>
@@ -2597,21 +2978,24 @@
         <v>44629</v>
       </c>
       <c r="K74" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>176</v>
+        <v>219</v>
       </c>
       <c r="B75" t="s">
-        <v>177</v>
+        <v>220</v>
+      </c>
+      <c r="C75" t="s">
+        <v>221</v>
       </c>
       <c r="F75" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="G75" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="H75" t="s">
         <v>16</v>
@@ -2623,21 +3007,24 @@
         <v>44629</v>
       </c>
       <c r="K75" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>178</v>
+        <v>222</v>
       </c>
       <c r="B76" t="s">
-        <v>179</v>
+        <v>223</v>
+      </c>
+      <c r="C76" t="s">
+        <v>222</v>
       </c>
       <c r="F76" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="G76" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="H76" t="s">
         <v>16</v>
@@ -2649,21 +3036,24 @@
         <v>44629</v>
       </c>
       <c r="K76" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>180</v>
+        <v>224</v>
       </c>
       <c r="B77" t="s">
-        <v>181</v>
+        <v>225</v>
+      </c>
+      <c r="C77" t="s">
+        <v>226</v>
       </c>
       <c r="F77" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="G77" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="H77" t="s">
         <v>16</v>
@@ -2675,21 +3065,24 @@
         <v>44629</v>
       </c>
       <c r="K77" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>182</v>
+        <v>227</v>
       </c>
       <c r="B78" t="s">
-        <v>183</v>
+        <v>228</v>
+      </c>
+      <c r="C78" t="s">
+        <v>227</v>
       </c>
       <c r="F78" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="G78" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="H78" t="s">
         <v>16</v>
@@ -2701,21 +3094,24 @@
         <v>44629</v>
       </c>
       <c r="K78" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>184</v>
+        <v>229</v>
       </c>
       <c r="B79" t="s">
-        <v>185</v>
+        <v>230</v>
+      </c>
+      <c r="C79" t="s">
+        <v>231</v>
       </c>
       <c r="F79" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="G79" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="H79" t="s">
         <v>16</v>
@@ -2727,21 +3123,24 @@
         <v>44629</v>
       </c>
       <c r="K79" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>186</v>
+        <v>232</v>
       </c>
       <c r="B80" t="s">
-        <v>187</v>
+        <v>233</v>
+      </c>
+      <c r="C80" t="s">
+        <v>234</v>
       </c>
       <c r="F80" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="G80" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="H80" t="s">
         <v>16</v>
@@ -2753,7 +3152,7 @@
         <v>44629</v>
       </c>
       <c r="K80" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
   </sheetData>
@@ -2783,13 +3182,13 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>188</v>
+        <v>235</v>
       </c>
       <c r="D1" t="s">
-        <v>189</v>
+        <v>236</v>
       </c>
       <c r="E1" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="F1" t="s">
         <v>7</v>
@@ -2814,6 +3213,9 @@
       <c r="B2" t="s">
         <v>15</v>
       </c>
+      <c r="C2" t="s">
+        <v>238</v>
+      </c>
       <c r="F2" t="s">
         <v>16</v>
       </c>
@@ -2824,15 +3226,18 @@
         <v>44629</v>
       </c>
       <c r="I2" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>239</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -2844,15 +3249,18 @@
         <v>44629</v>
       </c>
       <c r="I3" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>240</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
@@ -2864,15 +3272,18 @@
         <v>44629</v>
       </c>
       <c r="I4" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>80</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
@@ -2884,15 +3295,18 @@
         <v>44629</v>
       </c>
       <c r="I5" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>101</v>
+      </c>
+      <c r="C6" t="s">
+        <v>241</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
@@ -2904,15 +3318,18 @@
         <v>44629</v>
       </c>
       <c r="I6" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>135</v>
+      </c>
+      <c r="C7" t="s">
+        <v>242</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
@@ -2924,15 +3341,18 @@
         <v>44629</v>
       </c>
       <c r="I7" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
+        <v>171</v>
+      </c>
+      <c r="C8" t="s">
+        <v>243</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
@@ -2944,15 +3364,18 @@
         <v>44629</v>
       </c>
       <c r="I8" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="B9" t="s">
-        <v>167</v>
+        <v>206</v>
+      </c>
+      <c r="C9" t="s">
+        <v>244</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
@@ -2964,7 +3387,7 @@
         <v>44629</v>
       </c>
       <c r="I9" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
   </sheetData>
@@ -2992,13 +3415,13 @@
         <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>191</v>
+        <v>245</v>
       </c>
       <c r="D1" t="s">
-        <v>192</v>
+        <v>246</v>
       </c>
       <c r="E1" t="s">
-        <v>193</v>
+        <v>247</v>
       </c>
       <c r="F1" t="s">
         <v>9</v>
@@ -3021,7 +3444,7 @@
         <v>44629</v>
       </c>
       <c r="G2" s="1">
-        <v>44642</v>
+        <v>44755</v>
       </c>
     </row>
   </sheetData>
